--- a/_EXCEL_FILES/01_per v1.xlsx
+++ b/_EXCEL_FILES/01_per v1.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\Github\hrms\_EXCEL_FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7650" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="01_รายการบุคลากร" sheetId="4" r:id="rId1"/>
     <sheet name="02_รายการ work permit" sheetId="5" r:id="rId2"/>
     <sheet name="03_แก้ไขข้อมูลพนักงานด้วยตนเอง" sheetId="6" r:id="rId3"/>
     <sheet name="04_การส่งคำร้องขอแก้ไขข้อมูล" sheetId="8" r:id="rId4"/>
+    <sheet name="05_อนุมัติคำร้องขอแก้ไขข้อมูล" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="44">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -18254,6 +18255,3504 @@
         <a:xfrm>
           <a:off x="8111951" y="20285111"/>
           <a:ext cx="3504665" cy="732692"/>
+        </a:xfrm>
+        <a:prstGeom prst="accentBorderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 126076"/>
+            <a:gd name="adj6" fmla="val -62571"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F3FCFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="009056"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ปุ่ม</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ลบ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> จะ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>enable </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เมื่อสถานะ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> status_id = 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>และ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>status_id = value </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>อื่น นอกเหนือจาก </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ต้อง </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>disable </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ไม่สามารถทำรายการ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ลบ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ได้</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="009056"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209340</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>564221</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>163540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1779395" y="4636896"/>
+          <a:ext cx="7514331" cy="4224748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>245970</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>62193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>134071</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>45625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B37FD4-0DCD-45CB-BC29-0A436C584398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4227420" y="10558743"/>
+          <a:ext cx="1088251" cy="364432"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FDE9F2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="EB3587"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="EB3587"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เริ่มต้น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190021</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>45625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>192021</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>82363</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D21B72-E50D-4E54-8B7E-9D914F1A83E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4771546" y="10923175"/>
+          <a:ext cx="2000" cy="227238"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190580</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>163046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>192021</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7EDBC6-57CE-4A62-A8EC-FB9671B449A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4772105" y="11802596"/>
+          <a:ext cx="1441" cy="294154"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>87966</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>82363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>296076</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>163046</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5925B0-2E38-4E3E-A486-4C17983ED5F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3469341" y="11150413"/>
+          <a:ext cx="2608410" cy="652183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FBF6FC"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C162D4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C162D4"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ระบบแสดง </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C162D4"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C162D4"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>รายการคำร้องขอแก้ไขข้อมูล</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C162D4"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C162D4"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>231963</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>182095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Callout: Bent Line with Border and Accent Bar 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7F15054-2D5D-48B3-9686-297DE419640B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10814238" y="10678645"/>
+          <a:ext cx="3197037" cy="1399055"/>
+        </a:xfrm>
+        <a:prstGeom prst="accentBorderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 58682"/>
+            <a:gd name="adj6" fmla="val -36048"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ดึงข้อมูลจาก</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Table per_person_req</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>โดยเลือกแสดงเฉพาะ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>flag_del = 0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>269501</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>99732</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Flowchart: Magnetic Disk 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B77C264D-7680-4FE0-8A13-820C557937A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334250" y="11220450"/>
+          <a:ext cx="2317376" cy="518832"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="469DEC"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="469DEC"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>per_person_req</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>296076</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>27455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>30816</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Connector: Elbow 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7632596A-E186-4DD3-AD57-499341E482ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6077751" y="11476505"/>
+          <a:ext cx="1256499" cy="3361"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133510</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>59632</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle: Rounded Corners 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C540D2-39D3-47CE-89DB-D7EC2F14EA74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="12096750"/>
+          <a:ext cx="1086010" cy="364432"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFE1E1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>จบการทำงาน</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>253254</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>141355</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>59632</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle: Rounded Corners 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B37FD4-0DCD-45CB-BC29-0A436C584398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4234704" y="13811250"/>
+          <a:ext cx="1088251" cy="364432"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FDE9F2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="EB3587"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="EB3587"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เริ่มต้น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>197305</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>59632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>199305</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>172570</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D21B72-E50D-4E54-8B7E-9D914F1A83E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4778830" y="14175682"/>
+          <a:ext cx="2000" cy="303438"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179313</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>199306</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>64790</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7EDBC6-57CE-4A62-A8EC-FB9671B449A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4760838" y="14982825"/>
+          <a:ext cx="19993" cy="722015"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>245408</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>74925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>131268</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>58357</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle: Rounded Corners 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C540D2-39D3-47CE-89DB-D7EC2F14EA74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4226858" y="18953475"/>
+          <a:ext cx="1086010" cy="364432"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFE1E1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>จบการทำงาน</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>172570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>303360</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D9B97B-FF46-4392-8595-CCA485276C87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3476625" y="14479120"/>
+          <a:ext cx="2608410" cy="503705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EFFFF9"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="009056"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>พนักงานกดปุ่ม </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>แจ้งความประสงค์</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ตามหัวข้อที่เลือก</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="009056"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>75257</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>64790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>283367</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>101771</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D9B97B-FF46-4392-8595-CCA485276C87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3456632" y="15704840"/>
+          <a:ext cx="2608410" cy="798981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EFFFF9"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="009056"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>พนักงานกรอกข้อมูลทุกแบบฟอร์มให้ครบ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="009056"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>172391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>303359</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>18872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D9B97B-FF46-4392-8595-CCA485276C87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3476624" y="17336441"/>
+          <a:ext cx="2608410" cy="798981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EFFFF9"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="009056"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>พนักงานที่กดปุ่ม </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>บันทึกข้อมูล</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179313</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>101771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>199305</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>172391</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7EDBC6-57CE-4A62-A8EC-FB9671B449A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="17" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4760838" y="16503821"/>
+          <a:ext cx="19992" cy="832620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>188338</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>18872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>199305</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>74925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7EDBC6-57CE-4A62-A8EC-FB9671B449A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4769863" y="18135422"/>
+          <a:ext cx="10967" cy="818053"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>150515</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>146540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>67591</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>95965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Flowchart: Magnetic Disk 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B77C264D-7680-4FE0-8A13-820C557937A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7132340" y="18263090"/>
+          <a:ext cx="2317376" cy="520925"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="469DEC"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="469DEC"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>per_person_req</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>303359</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>1429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>109053</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>146540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Connector: Elbow 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7632596A-E186-4DD3-AD57-499341E482ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6085034" y="17736979"/>
+          <a:ext cx="2205994" cy="526111"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>96248</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>170402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>580970</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>153834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle: Rounded Corners 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B37FD4-0DCD-45CB-BC29-0A436C584398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4077698" y="20382452"/>
+          <a:ext cx="1084797" cy="364432"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FDE9F2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="EB3587"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="EB3587"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เริ่มต้น</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>40299</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>153834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>42301</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>172570</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D21B72-E50D-4E54-8B7E-9D914F1A83E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="25" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4621824" y="20746884"/>
+          <a:ext cx="2002" cy="399736"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>109337</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>169129</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>591818</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>152561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle: Rounded Corners 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C540D2-39D3-47CE-89DB-D7EC2F14EA74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4090787" y="28001179"/>
+          <a:ext cx="1082556" cy="364432"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFE1E1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>จบการทำงาน</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>534866</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>172570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>146355</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D9B97B-FF46-4392-8595-CCA485276C87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3316166" y="21146620"/>
+          <a:ext cx="2611864" cy="503705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EFFFF9"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="009056"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>พนักงานกดปุ่ม </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>          (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ลบ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="009056"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>429148</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>29621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>286273</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>106529</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0EFA351-B891-432A-9902-504477E8A4DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3210448" y="24813671"/>
+          <a:ext cx="2857500" cy="648408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FBF6FC"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C162D4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C162D4"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ระบบการลบข้อมูล</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>46432</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>106529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>59401</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>31400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7EDBC6-57CE-4A62-A8EC-FB9671B449A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="26" idx="2"/>
+          <a:endCxn id="38" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4627957" y="25462079"/>
+          <a:ext cx="12969" cy="877371"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>46432</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>141829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>52267</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>169129</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7EDBC6-57CE-4A62-A8EC-FB9671B449A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="38" idx="4"/>
+          <a:endCxn id="24" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4627957" y="27021379"/>
+          <a:ext cx="5835" cy="979800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>42302</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>46432</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>31399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Connector: Elbow 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC09021-7555-4660-936D-BEC120B7DAD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="2"/>
+          <a:endCxn id="30" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4281579" y="21992572"/>
+          <a:ext cx="688625" cy="4130"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502417</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>31400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>187065</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>141828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Parallelogram 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ABF815B-29A6-4875-AB36-23A0A02AA907}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3283717" y="22338950"/>
+          <a:ext cx="2685023" cy="681928"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 45371"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFF3F3"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ระบบแสดงข้อความเตือน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ต้องการลบข้อมูลใชหรือไม่</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>?"</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>46430</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>141828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>51827</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>104670</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Connector: Elbow 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC09021-7555-4660-936D-BEC120B7DAD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="4"/>
+          <a:endCxn id="32" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4363483" y="23285350"/>
+          <a:ext cx="534342" cy="5397"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>104670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>103655</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>47520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Diamond 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D0785BC-3C0B-4013-A4ED-84BB1D385A01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3381375" y="23555220"/>
+          <a:ext cx="2503955" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFF7F7"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ตรวจสอบเงื่อนไข</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>596620</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>170298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>109336</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>160844</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Connector: Elbow 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC09021-7555-4660-936D-BEC120B7DAD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="1"/>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="3377920" y="24001848"/>
+          <a:ext cx="712866" cy="4181546"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -137652"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>51827</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>47520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>59400</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>29621</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Connector: Elbow 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC09021-7555-4660-936D-BEC120B7DAD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="2"/>
+          <a:endCxn id="26" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4455588" y="24628334"/>
+          <a:ext cx="363101" cy="7573"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>491949</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>522666</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>73270</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Callout: Bent Line with Border and Accent Bar 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B95E803-81E9-44EC-ACD6-CBCBDBE438B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10474149" y="25682122"/>
+          <a:ext cx="3031092" cy="318198"/>
+        </a:xfrm>
+        <a:prstGeom prst="accentBorderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 24626"/>
+            <a:gd name="adj6" fmla="val -31994"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F4EDF9"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="9C5BCD"/>
+          </a:solidFill>
+          <a:prstDash val="dashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="9C5BCD"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เปลี่ยน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="9C5BCD"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="9C5BCD"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>value </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="9C5BCD"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ของฟิลด์ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="9C5BCD"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>flag_del </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="9C5BCD"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>จาก </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="9C5BCD"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="9C5BCD"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> เป็น </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="9C5BCD"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171241</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>158534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>88317</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>105867</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Flowchart: Magnetic Disk 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B77C264D-7680-4FE0-8A13-820C557937A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7153066" y="25514084"/>
+          <a:ext cx="2317376" cy="518833"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="469DEC"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="469DEC"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>per_person_req</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314011</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>129779</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>158534</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Connector: Elbow 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7632596A-E186-4DD3-AD57-499341E482ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="36" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6095686" y="25121088"/>
+          <a:ext cx="2216068" cy="392996"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502418</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>31400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>187066</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>141829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Parallelogram 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ABF815B-29A6-4875-AB36-23A0A02AA907}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3283718" y="26339450"/>
+          <a:ext cx="2685023" cy="681929"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 45371"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFF3F3"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ระบบแสดงข้อความเตือน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ลบข้อมูลเรียบร้อยแล้ว</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>188407</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>493169</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>29789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4769932" y="21237819"/>
+          <a:ext cx="304762" cy="337520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>125605</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>167473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314012</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>41869</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3485523" y="6981511"/>
+          <a:ext cx="5557994" cy="816429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>336199</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>153656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>125604</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8469084" y="7344508"/>
+          <a:ext cx="386025" cy="223157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>512885</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>52335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>282610</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>10467</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Oval Callout 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9242390" y="6677967"/>
+          <a:ext cx="366346" cy="334945"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -97976"/>
+            <a:gd name="adj2" fmla="val 56250"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>383930</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>153655</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>174591</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Oval Callout 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7920194" y="7218904"/>
+          <a:ext cx="366346" cy="334945"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 93452"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>575687</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>94204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>500627</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>73270</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Callout: Bent Line with Border and Accent Bar 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7F15054-2D5D-48B3-9686-297DE419640B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8157587" y="20496754"/>
+          <a:ext cx="3525390" cy="741066"/>
         </a:xfrm>
         <a:prstGeom prst="accentBorderCallout2">
           <a:avLst>
@@ -20855,7 +24354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DQ108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -21544,4 +25043,699 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DQ108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="Q55" sqref="Q55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:121" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BV1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BY1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CA1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CC1" s="1"/>
+      <c r="CD1" s="1"/>
+      <c r="CE1" s="1"/>
+      <c r="CF1" s="1"/>
+      <c r="CG1" s="1"/>
+      <c r="CH1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1"/>
+      <c r="CK1" s="1"/>
+      <c r="CL1" s="1"/>
+      <c r="CM1" s="1"/>
+      <c r="CN1" s="1"/>
+      <c r="CO1" s="1"/>
+      <c r="CP1" s="1"/>
+      <c r="CQ1" s="1"/>
+      <c r="CR1" s="1"/>
+      <c r="CS1" s="1"/>
+      <c r="CT1" s="1"/>
+      <c r="CU1" s="1"/>
+      <c r="CV1" s="1"/>
+      <c r="CW1" s="1"/>
+      <c r="CX1" s="1"/>
+      <c r="CY1" s="1"/>
+      <c r="CZ1" s="1"/>
+      <c r="DA1" s="1"/>
+      <c r="DB1" s="1"/>
+      <c r="DC1" s="1"/>
+      <c r="DD1" s="1"/>
+      <c r="DE1" s="1"/>
+      <c r="DF1" s="1"/>
+      <c r="DG1" s="1"/>
+      <c r="DH1" s="1"/>
+      <c r="DI1" s="1"/>
+      <c r="DJ1" s="1"/>
+      <c r="DK1" s="1"/>
+      <c r="DL1" s="1"/>
+      <c r="DM1" s="1"/>
+      <c r="DN1" s="1"/>
+      <c r="DO1" s="1"/>
+      <c r="DP1" s="1"/>
+      <c r="DQ1" s="1"/>
+    </row>
+    <row r="2" spans="1:121" customFormat="1" ht="18" customHeight="1">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BY2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CA2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CC2" s="1"/>
+      <c r="CD2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CF2" s="1"/>
+      <c r="CG2" s="1"/>
+      <c r="CH2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="1"/>
+      <c r="CL2" s="1"/>
+      <c r="CM2" s="1"/>
+      <c r="CN2" s="1"/>
+      <c r="CO2" s="1"/>
+      <c r="CP2" s="1"/>
+      <c r="CQ2" s="1"/>
+      <c r="CR2" s="1"/>
+      <c r="CS2" s="1"/>
+      <c r="CT2" s="1"/>
+      <c r="CU2" s="1"/>
+      <c r="CV2" s="1"/>
+      <c r="CW2" s="1"/>
+      <c r="CX2" s="1"/>
+      <c r="CY2" s="1"/>
+      <c r="CZ2" s="1"/>
+      <c r="DA2" s="1"/>
+      <c r="DB2" s="1"/>
+      <c r="DC2" s="1"/>
+      <c r="DD2" s="1"/>
+      <c r="DE2" s="1"/>
+      <c r="DF2" s="1"/>
+      <c r="DG2" s="1"/>
+      <c r="DH2" s="1"/>
+      <c r="DI2" s="1"/>
+      <c r="DJ2" s="1"/>
+      <c r="DK2" s="1"/>
+      <c r="DL2" s="1"/>
+      <c r="DM2" s="1"/>
+      <c r="DN2" s="1"/>
+      <c r="DO2" s="1"/>
+      <c r="DP2" s="1"/>
+      <c r="DQ2" s="1"/>
+    </row>
+    <row r="3" spans="1:121" s="4" customFormat="1" ht="5.25" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BY3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CA3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CC3" s="1"/>
+      <c r="CD3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CF3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CH3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="1"/>
+      <c r="CL3" s="1"/>
+      <c r="CM3" s="1"/>
+      <c r="CN3" s="1"/>
+      <c r="CO3" s="1"/>
+      <c r="CP3" s="1"/>
+      <c r="CQ3" s="1"/>
+      <c r="CR3" s="1"/>
+      <c r="CS3" s="1"/>
+      <c r="CT3" s="1"/>
+      <c r="CU3" s="1"/>
+      <c r="CV3" s="1"/>
+      <c r="CW3" s="1"/>
+      <c r="CX3" s="1"/>
+      <c r="CY3" s="1"/>
+      <c r="CZ3" s="1"/>
+      <c r="DA3" s="1"/>
+      <c r="DB3" s="1"/>
+      <c r="DC3" s="1"/>
+      <c r="DD3" s="1"/>
+      <c r="DE3" s="1"/>
+      <c r="DF3" s="1"/>
+      <c r="DG3" s="1"/>
+      <c r="DH3" s="1"/>
+      <c r="DI3" s="1"/>
+      <c r="DJ3" s="1"/>
+      <c r="DK3" s="1"/>
+      <c r="DL3" s="1"/>
+      <c r="DM3" s="1"/>
+      <c r="DN3" s="1"/>
+      <c r="DO3" s="1"/>
+      <c r="DP3" s="1"/>
+      <c r="DQ3" s="1"/>
+    </row>
+    <row r="4" spans="1:121" ht="3" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:121" customFormat="1">
+      <c r="A5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+    </row>
+    <row r="6" spans="1:121" customFormat="1">
+      <c r="A6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+    </row>
+    <row r="7" spans="1:121" customFormat="1">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8">
+        <v>44260</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+    </row>
+    <row r="9" spans="1:121" s="5" customFormat="1">
+      <c r="A9" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:121">
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:121">
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="5" customFormat="1">
+      <c r="A20" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" s="5" customFormat="1">
+      <c r="A25" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" s="5" customFormat="1">
+      <c r="A50" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="A62" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
+      <c r="A71" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6"/>
+    </row>
+    <row r="73" spans="1:26">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26">
+      <c r="A106" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
+      <c r="T106" s="6"/>
+      <c r="U106" s="6"/>
+      <c r="V106" s="6"/>
+      <c r="W106" s="6"/>
+      <c r="X106" s="6"/>
+      <c r="Y106" s="6"/>
+      <c r="Z106" s="6"/>
+    </row>
+    <row r="108" spans="1:26">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:S7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:S2"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:S5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:S6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>